--- a/sources/case/AttendanceStatisticsAPP.xlsx
+++ b/sources/case/AttendanceStatisticsAPP.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dandanzhan/Workspace/QiFeiApi/sources/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sam\git\QiFeiApi\sources\case\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="25360" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -82,9 +82,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>[{"to_work":{"in_out_type":"0","type":"0","sign_time":"2017-08-01T08:51:00+08:00","attendance_type":"","status":[]},"attendance_date":"2017-08-01T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"2017-08-01T18:00:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"0","type":"0","sign_time":"2017-08-02T09:30:00+08:00","attendance_type":"","status":[]},"attendance_date":"2017-08-02T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"2017-08-02T18:30:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-03T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-04T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-05T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-06T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-07T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-08T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-09T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-10T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-11T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-12T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-13T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-14T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-15T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-16T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-17T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-18T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-19T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-20T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-21T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-22T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-23T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-24T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-25T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-26T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"2017-08-27T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-28T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-29T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-30T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-31T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}}]</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -106,25 +103,35 @@
     <t>9</t>
   </si>
   <si>
-    <t>[{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"2017-08-01T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"外出","status":["漏打卡","外出"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["漏打卡","调休"]},"attendance_date":"2017-08-02T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"2017-08-03T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"2017-08-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-06T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"attendance_date":"2017-08-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-31T00:00:00Z"}]</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"sign_time":"2017-08-01T10:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"2017-08-01T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"加班","status":["加班"]},"attendance_date":"2017-08-01T00:00:00Z"},{"to_work":{"sign_time":"2017-08-02T11:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"事假","status":["迟到","事假"]},"off_work":{"sign_time":"2017-08-02T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"2017-08-02T00:00:00Z"},{"to_work":{"sign_time":"2017-08-03T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"2017-08-03T18:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"2017-08-03T00:00:00Z"},{"to_work":{"sign_time":"2017-08-04T09:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"2017-08-04T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"事假","status":["早退","事假"]},"attendance_date":"2017-08-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"2017-08-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"2017-08-06T00:00:00Z"},{"to_work":{"sign_time":"2017-08-07T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"2017-08-07T19:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"2017-08-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"2017-08-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"2017-08-09T00:00:00Z"},{"to_work":{"sign_time":"2017-08-10T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-31T00:00:00Z"}]</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"sign_time":"2017-08-01T08:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"2017-08-01T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"2017-08-01T00:00:00Z"},{"to_work":{"sign_time":"2017-08-02T09:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["漏打卡","加班"]},"attendance_date":"2017-08-02T00:00:00Z"},{"to_work":{"sign_time":"2017-08-03T09:30:00+08:00","in_out_type":"","type":"","attendance_type":"加班","status":["补卡","加班"]},"off_work":{"sign_time":"2017-08-03T18:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"2017-08-03T00:00:00Z"},{"to_work":{"sign_time":"2017-08-04T09:20:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"2017-08-04T18:19:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"2017-08-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"2017-08-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-06T00:00:00Z"},{"to_work":{"sign_time":"2017-08-07T09:31:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"2017-08-07T18:30:00+08:00","in_out_type":"","type":"","attendance_type":"补卡","status":["补卡"]},"attendance_date":"2017-08-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["漏打卡","年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"事假","status":["漏打卡","事假"]},"attendance_date":"2017-08-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"attendance_date":"2017-08-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"2017-08-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"2017-08-31T00:00:00Z"}]</t>
+    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T08:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-01T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T09:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["漏打卡","加班"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T09:30:00+08:00","in_out_type":"","type":"","attendance_type":"加班","status":["补卡","加班"]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:20:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T18:19:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T09:31:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-07T18:30:00+08:00","in_out_type":"","type":"","attendance_type":"补卡","status":["补卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["漏打卡","年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"事假","status":["漏打卡","事假"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-01T08:51:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-01T18:00:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-02T09:30:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-02T18:30:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}}]</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T10:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-01T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T11:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"事假","status":["迟到","事假"]},"off_work":{"sign_time":"{Date.LastMonth}-02T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"事假","status":["早退","事假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-07T19:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-10T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"外出","status":["漏打卡","外出"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["漏打卡","调休"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -154,13 +161,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -435,14 +445,14 @@
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="45" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -462,7 +472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -483,7 +493,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -492,37 +504,38 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -532,16 +545,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,23 +568,23 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -580,15 +593,15 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
@@ -597,21 +610,22 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/sources/case/AttendanceStatisticsAPP.xlsx
+++ b/sources/case/AttendanceStatisticsAPP.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
   <si>
     <t>CaseID</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Path</t>
   </si>
   <si>
-    <t>/attendance/v1/attendances/employee/month-statistic?month=8&amp;year=2017</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -46,80 +43,103 @@
     <t>API</t>
   </si>
   <si>
+    <t>BasePath</t>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>month_days</t>
+  </si>
+  <si>
+    <t>total_count</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>case_1</t>
+  </si>
+  <si>
+    <t>case_2</t>
+  </si>
+  <si>
+    <t>case_3</t>
+  </si>
+  <si>
+    <t>case_4</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-01T08:51:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-01T18:00:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-02T09:30:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-02T18:30:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}}]</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T10:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-01T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T11:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"事假","status":["迟到","事假"]},"off_work":{"sign_time":"{Date.LastMonth}-02T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"事假","status":["早退","事假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-07T19:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-10T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+  </si>
+  <si>
+    <t>[{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"外出","status":["漏打卡","外出"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["漏打卡","调休"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.Year}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AttendanceStatisticsAPP</t>
-  </si>
-  <si>
-    <t>BasePath</t>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>month_days</t>
-  </si>
-  <si>
-    <t>total_count</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>case_1</t>
-  </si>
-  <si>
-    <t>case_2</t>
-  </si>
-  <si>
-    <t>case_3</t>
-  </si>
-  <si>
-    <t>case_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T08:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-01T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T09:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["漏打卡","加班"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T09:30:00+08:00","in_out_type":"","type":"","attendance_type":"加班","status":["补卡","加班"]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:20:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T18:19:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T09:31:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-07T18:30:00+08:00","in_out_type":"","type":"","attendance_type":"补卡","status":["补卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["漏打卡","年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"事假","status":["漏打卡","事假"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/attendance/v1/attendances/employee/month-statistic?month={month}&amp;year={year}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{Date.TheLastMonth}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T08:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-01T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T09:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["漏打卡","加班"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T09:30:00+08:00","in_out_type":"","type":"","attendance_type":"加班","status":["补卡","加班"]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:20:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T18:19:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T09:31:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-07T18:30:00+08:00","in_out_type":"","type":"","attendance_type":"补卡","status":["补卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["漏打卡","年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"事假","status":["漏打卡","事假"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"病假","status":["漏打卡","病假"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-01T08:51:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-01T18:00:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"0","type":"0","sign_time":"{Date.LastMonth}-02T09:30:00+08:00","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z","off_work":{"in_out_type":"0","type":"1","sign_time":"{Date.LastMonth}-02T18:30:00+08:00","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"","status":[]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}},{"to_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z","off_work":{"in_out_type":"","type":"","sign_time":"0001-01-01T00:00:00Z","attendance_type":"漏打卡","status":["漏打卡"]}}]</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"sign_time":"{Date.LastMonth}-01T10:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"迟到","status":["迟到"]},"off_work":{"sign_time":"{Date.LastMonth}-01T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-02T11:01:00+08:00","in_out_type":"0","type":"0","attendance_type":"事假","status":["迟到","事假"]},"off_work":{"sign_time":"{Date.LastMonth}-02T19:00:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-03T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-03T18:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"早退","status":["早退"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-04T09:51:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-04T17:51:00+08:00","in_out_type":"0","type":"1","attendance_type":"事假","status":["早退","事假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"加班","status":["加班"]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-07T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"{Date.LastMonth}-07T19:30:00+08:00","in_out_type":"0","type":"1","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"{Date.LastMonth}-10T10:00:00+08:00","in_out_type":"0","type":"0","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
-  </si>
-  <si>
-    <t>[{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"出差","status":["出差"]},"attendance_date":"{Date.LastMonth}-01T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"外出","status":["漏打卡","外出"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["漏打卡","调休"]},"attendance_date":"{Date.LastMonth}-02T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-03T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"年假","status":["年假"]},"attendance_date":"{Date.LastMonth}-04T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-05T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-06T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"调休","status":["调休"]},"attendance_date":"{Date.LastMonth}-07T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-08T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-09T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-10T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-11T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-12T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-13T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-14T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-15T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-16T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-17T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-18T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-19T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-20T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-21T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-22T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-23T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-24T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-25T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-26T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"","status":[]},"attendance_date":"{Date.LastMonth}-27T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-28T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-29T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-30T00:00:00Z"},{"to_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"off_work":{"sign_time":"0001-01-01T00:00:00Z","in_out_type":"","type":"","attendance_type":"漏打卡","status":["漏打卡"]},"attendance_date":"{Date.LastMonth}-31T00:00:00Z"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -133,6 +153,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -157,8 +184,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -442,54 +469,58 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
+    <col min="1" max="1" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -501,42 +532,79 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -545,87 +613,90 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sources/case/AttendanceStatisticsAPP.xlsx
+++ b/sources/case/AttendanceStatisticsAPP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
